--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -451,883 +451,1193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>485.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>009188</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>鹏华股息精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>95.63</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>000916</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>93.14</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009476</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161725</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证白酒指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>560002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>益民红利成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>560003</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>益民创新优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001135</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>益民品质升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004301</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004302</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005175</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010661</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007141</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007142</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008602</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008603</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003739</t>
+          <t>161725</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华鑫弘灵活配置混合</t>
+          <t>招商中证白酒指数</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.62</t>
+          <t>499.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005175</t>
+          <t>010336</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
+          <t>中欧悦享生活混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>73.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3143</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005620</t>
+          <t>002621</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧品质消费股票A</t>
+          <t>中欧消费主题股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005621</t>
+          <t>005620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧品质消费股票C</t>
+          <t>中欧品质消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009875</t>
+          <t>002697</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票A</t>
+          <t>中欧消费主题股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009876</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘甄选食品饮料股票C</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.82</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>54.59</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.54</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5889</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010073</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>方正富邦策略精选混合C</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54.59</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>005621</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>中欧品质消费股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010336</t>
+          <t>002376</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合A</t>
+          <t>国寿安保核心产业灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010337</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧悦享生活混合C</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007415</t>
+          <t>180001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方致远混合A</t>
+          <t>银华优势企业混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007416</t>
+          <t>009875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南方致远混合C</t>
+          <t>天弘甄选食品饮料股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>010337</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>中欧悦享生活混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>009876</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>天弘甄选食品饮料股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519125</t>
+          <t>007415</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合A</t>
+          <t>南方致远混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519176</t>
+          <t>005235</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>浦银安盛消费升级混合C</t>
+          <t>银华食品饮料量化优选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.72</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.72</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1976,15 +2506,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>92.82</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002376</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保核心产业灵活配置混合</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161725</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商中证白酒指数</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008602</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>方正富邦新兴成长混合A</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>76.23</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008603</t>
+          <t>004258</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>方正富邦新兴成长混合C</t>
+          <t>国寿安保稳嘉混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>76.23</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005235</t>
+          <t>005175</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华食品饮料量化优选股票A</t>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005236</t>
+          <t>003025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>银华食品饮料量化优选股票C</t>
+          <t>新华红利回报混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>010073</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>方正富邦策略精选混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>005236</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>银华食品饮料量化优选股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>003739</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>新华鑫弘灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6</v>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>180001</t>
+          <t>007416</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>银华优势企业混合</t>
+          <t>南方致远混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>66.12</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002621</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中欧消费主题股票A</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002697</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中欧消费主题股票C</t>
+          <t>天治新消费灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003025</t>
+          <t>008603</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>新华红利回报混合</t>
+          <t>方正富邦新兴成长混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>27.77</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2386,25 +3066,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>004258</t>
+          <t>004259</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国寿安保稳嘉混合A</t>
+          <t>国寿安保稳嘉混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>26.22</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>0.98</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>004259</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国寿安保稳嘉混合C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3177,4 +3178,1274 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.3010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4448,4 +4449,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4847,4 +4848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4856,7 +4857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,17 +4868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4887,14 +4908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.54</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.8035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4903,14 +4946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.8</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4919,14 +4984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.32</v>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4935,13 +5022,1667 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2147</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010998</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道消费智航股票型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>22.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6581,7 +6582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6592,17 +6593,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6612,14 +6633,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.95</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.8433</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6628,14 +6671,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.54</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6644,14 +6709,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.8</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6660,14 +6747,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.32</v>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6676,13 +6785,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>22.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8044,7 +8045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8055,17 +8056,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8075,14 +8096,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.04</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>685.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8091,14 +8134,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>44</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.95</v>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7866</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8107,14 +8172,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.54</v>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8123,14 +8210,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.8</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8139,14 +8248,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.32</v>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3571</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8155,13 +8286,1055 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>22.27</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>20.56</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>22.04</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>27.95</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>1.54</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>28.8</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>30.32</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>22.27</v>
       </c>
     </row>
@@ -600,6 +617,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>609.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.9511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3217,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4941,7 +5582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5339,7 +5980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6609,7 +7250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8147,7 +8788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
+++ b/数据整理/stocks/A股/上证主板/603589-口子窖.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>15.36</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>20.56</v>
+        <v>15.36</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>22.04</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>27.95</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>1.54</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>30.32</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1226 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>22.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>485.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.4417</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7711</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009849</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010661</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信稳健聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1830,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>603.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.1051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票型证券投资C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票型证券投资A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014526</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015635</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015964</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013983</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合睿金混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011015</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014527</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富中盘潜力增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015636</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安价值先锋混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013984</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉合锦元回报混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +4405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2396,7 +5561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3858,7 +7023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5582,7 +8747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5980,7 +9145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7250,7 +10415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8786,1200 +11951,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161725</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商中证白酒指数</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>485.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>13.4417</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.6853</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8192</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7711</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>560003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>益民创新优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7430</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>560002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>益民红利成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3698</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3262</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3237</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009476</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信食品饮料行业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2346</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1942</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方安泰混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.81</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1825</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1794</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001135</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>益民品质升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.94</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1466</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1441</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007415</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>南方致远混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1133</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005175</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007141</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004301</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008602</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.16</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0370</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007416</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>南方致远混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009849</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010661</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>安信稳健聚申一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>28.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008603</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>方正富邦新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>74.88</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004302</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国寿安保稳信混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>26.19</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>